--- a/artfynd/A 56299-2021 artfynd.xlsx
+++ b/artfynd/A 56299-2021 artfynd.xlsx
@@ -1422,7 +1422,7 @@
         <v>130801667</v>
       </c>
       <c r="B8" t="n">
-        <v>92227</v>
+        <v>92231</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
